--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC508F39-04E0-B740-902D-160BFCFA1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4C95E-FDFE-0844-815A-582430B2BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="deposits" sheetId="1" r:id="rId1"/>
-    <sheet name="espp_plan" sheetId="9" r:id="rId2"/>
+    <sheet name="rsu" sheetId="1" r:id="rId1"/>
+    <sheet name="espp" sheetId="9" r:id="rId2"/>
     <sheet name="dividends" sheetId="2" r:id="rId3"/>
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>source_fees</t>
-  </si>
-  <si>
-    <t>shares_purchased</t>
-  </si>
-  <si>
-    <t>total_cost</t>
   </si>
 </sst>
 </file>
@@ -533,19 +527,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E416E3-D6F6-3E46-B65F-097A6847118C}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="6"/>
-    <col min="2" max="2" width="16.83203125" style="7"/>
-    <col min="3" max="3" width="19.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="16.83203125" style="7"/>
+    <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -553,22 +545,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45351</v>
       </c>
@@ -576,22 +565,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="7">
-        <v>7345.14</v>
+        <v>118.47</v>
       </c>
       <c r="D2" s="7">
-        <v>118.47</v>
+        <v>791.12</v>
       </c>
       <c r="E2" s="7">
-        <v>791.12</v>
-      </c>
-      <c r="F2" s="7">
         <v>62</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45169</v>
       </c>
@@ -599,18 +585,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>4857.2700000000004</v>
+        <v>118.47</v>
       </c>
       <c r="D3" s="7">
-        <v>118.47</v>
+        <v>493.55</v>
       </c>
       <c r="E3" s="7">
-        <v>493.55</v>
-      </c>
-      <c r="F3" s="7">
         <v>41</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F4C95E-FDFE-0844-815A-582430B2BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1E7CA-FCF4-DC49-93F4-B5B45E7B206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="stock_splits" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -90,9 +89,6 @@
   </si>
   <si>
     <t>buy_price</t>
-  </si>
-  <si>
-    <t>shares_after_split</t>
   </si>
   <si>
     <t>target_currency</t>
@@ -371,7 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -910,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -923,16 +919,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -949,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,101 +962,11 @@
         <v>6</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A1EB0D-DD55-F846-B26C-F109373BD8B1}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45450</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>44397</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>39336</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>38814</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>37146</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>36704</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1E7CA-FCF4-DC49-93F4-B5B45E7B206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843B089-A61A-BA4F-BB3A-F7DA9B63030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>source_fees</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -375,7 +378,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -394,8 +397,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>43524</v>
       </c>
@@ -415,7 +421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>43889</v>
       </c>
@@ -435,7 +441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44460</v>
       </c>
@@ -455,7 +461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44825</v>
       </c>
@@ -475,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>43749</v>
       </c>
@@ -495,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44845</v>
       </c>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E416E3-D6F6-3E46-B65F-097A6847118C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +539,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -552,8 +558,11 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45351</v>
       </c>
@@ -573,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45169</v>
       </c>
@@ -601,7 +610,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +619,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,8 +635,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44652</v>
       </c>
@@ -644,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44743</v>
       </c>
@@ -697,7 +709,9 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -707,16 +721,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,8 +749,11 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43713</v>
       </c>
@@ -756,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44809</v>
       </c>
@@ -776,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44826</v>
       </c>
@@ -796,7 +813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44827</v>
       </c>
@@ -816,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44867</v>
       </c>
@@ -836,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44868</v>
       </c>
@@ -856,7 +873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44868</v>
       </c>
@@ -876,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44879</v>
       </c>
@@ -904,9 +921,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -914,7 +931,7 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44846</v>
       </c>
@@ -948,7 +968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44896</v>
       </c>

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C843B089-A61A-BA4F-BB3A-F7DA9B63030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47BD82-49BF-2742-92E5-10B26F621AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
+    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +108,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>buy_date</t>
   </si>
 </sst>
 </file>
@@ -723,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -923,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -989,4 +995,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>44897</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44897</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>44898</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>44898</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>44899</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B47BD82-49BF-2742-92E5-10B26F621AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92810CC-EAFD-1441-A510-FF79498022B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -999,13 +999,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1016,13 +1016,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44897</v>
       </c>
@@ -1032,12 +1035,15 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44898</v>
       </c>
@@ -1045,29 +1051,38 @@
       <c r="C3">
         <v>-1</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44898</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44899</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92810CC-EAFD-1441-A510-FF79498022B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75419D-0F67-7B4C-A12D-0147F1686758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="buy_orders" sheetId="5" r:id="rId4"/>
     <sheet name="sell_orders" sheetId="3" r:id="rId5"/>
     <sheet name="currency_conversions" sheetId="4" r:id="rId6"/>
-    <sheet name="currency_movements" sheetId="10" r:id="rId7"/>
+    <sheet name="money_transfers" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75419D-0F67-7B4C-A12D-0147F1686758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AABC70-10C4-9944-A073-DF96113A7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>date</t>
   </si>
@@ -101,9 +101,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>foreign_amount</t>
-  </si>
-  <si>
     <t>source_fees</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>buy_date</t>
+  </si>
+  <si>
+    <t>source_amount</t>
+  </si>
+  <si>
+    <t>target_amount</t>
+  </si>
+  <si>
+    <t>target_fees</t>
   </si>
 </sst>
 </file>
@@ -402,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -563,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -714,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,11 +931,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -937,27 +941,33 @@
     <col min="2" max="16384" width="16.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44846</v>
       </c>
@@ -970,11 +980,17 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44896</v>
       </c>
@@ -987,7 +1003,13 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1001,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1010,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1022,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AABC70-10C4-9944-A073-DF96113A7F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2FE0-35F8-4142-9516-C3DF56EE0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rsu" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -101,9 +101,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>source_fees</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -116,7 +113,7 @@
     <t>target_amount</t>
   </si>
   <si>
-    <t>target_fees</t>
+    <t>fee_currency</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -569,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -646,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -691,7 +688,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDFF433-2BAD-994E-8662-CF5793AE5261}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +697,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,13 +711,16 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +740,7 @@
     <col min="1" max="1" width="16.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,16 +754,19 @@
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43713</v>
       </c>
@@ -776,14 +779,17 @@
       <c r="D2">
         <v>156</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>0.03</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44809</v>
       </c>
@@ -796,14 +802,17 @@
       <c r="D3">
         <v>156</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>0.03</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44826</v>
       </c>
@@ -816,14 +825,17 @@
       <c r="D4">
         <v>166</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44827</v>
       </c>
@@ -836,14 +848,17 @@
       <c r="D5">
         <v>171.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>0.02</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44867</v>
       </c>
@@ -856,14 +871,17 @@
       <c r="D6">
         <v>110</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>0.01</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44868</v>
       </c>
@@ -876,14 +894,17 @@
       <c r="D7">
         <v>120</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>0.01</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44868</v>
       </c>
@@ -896,14 +917,17 @@
       <c r="D8">
         <v>70</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>0.01</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44879</v>
       </c>
@@ -916,10 +940,13 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>0.01</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -946,25 +973,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -972,22 +999,22 @@
         <v>44846</v>
       </c>
       <c r="B2" s="7">
-        <v>9764.41</v>
-      </c>
-      <c r="C2" s="7">
+        <v>9749.41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,22 +1022,22 @@
         <v>44896</v>
       </c>
       <c r="B3" s="7">
-        <v>1589.96</v>
-      </c>
-      <c r="C3" s="7">
+        <v>1574.96</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1021,33 +1048,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1887F8-5930-2F43-BE23-6AD91AA8E6F5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44897</v>
       </c>
@@ -1057,15 +1087,17 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44898</v>
       </c>
@@ -1073,38 +1105,47 @@
       <c r="C3">
         <v>-1</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44898</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44899</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/test/files/example.xlsx
+++ b/test/files/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mstadler/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/pyFIFOtax/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2FE0-35F8-4142-9516-C3DF56EE0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB558EB-CD24-9146-8C61-1D7469FEE0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17200" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>APPL</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>fee_currency</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -393,19 +393,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -493,7 +493,7 @@
         <v>43749</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>44845</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -554,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -634,16 +634,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -705,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -717,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -760,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>44867</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>44868</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -909,7 +909,7 @@
         <v>44868</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -932,7 +932,7 @@
         <v>44879</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -973,25 +973,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7">
         <v>15</v>
@@ -1031,7 +1031,7 @@
         <v>-1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7">
         <v>15</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1071,10 +1071,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1140,13 +1140,13 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
